--- a/biology/Médecine/Colonne_mobile_de_secours/Colonne_mobile_de_secours.xlsx
+++ b/biology/Médecine/Colonne_mobile_de_secours/Colonne_mobile_de_secours.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le concept de colonne mobile de secours (CMS) est issu de la doctrine française des secours.
 Mais le terme est utilisé différemment selon les pays.
@@ -512,7 +524,9 @@
           <t>En France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une colonne mobile de secours est un détachement de moyens de secours, tant sanitaires que logistiques, ainsi que leurs moyens de commandement et de communication, capable de mener des actions de secours de façon autonome en cas de catastrophe.
 </t>
